--- a/Code/Results/Cases/Case_4_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.014519984574719</v>
+        <v>0.538380445877948</v>
       </c>
       <c r="C2">
-        <v>0.1354940740722128</v>
+        <v>0.04233200773009571</v>
       </c>
       <c r="D2">
-        <v>0.5480957328857414</v>
+        <v>0.6652258404945997</v>
       </c>
       <c r="E2">
-        <v>0.2443884944060599</v>
+        <v>0.2711893627522741</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008278443194706555</v>
+        <v>0.002518792601187466</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1445448076579652</v>
+        <v>0.1410305611426637</v>
       </c>
       <c r="K2">
-        <v>1.055598633204141</v>
+        <v>0.5032047446278796</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.497691192539548</v>
+        <v>5.892821856924797</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.88014876986216</v>
+        <v>0.5028528678126349</v>
       </c>
       <c r="C3">
-        <v>0.1185365042218791</v>
+        <v>0.03748746243596202</v>
       </c>
       <c r="D3">
-        <v>0.494903686475169</v>
+        <v>0.6552871200087793</v>
       </c>
       <c r="E3">
-        <v>0.2193706016527344</v>
+        <v>0.2662916400292659</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008330194203078405</v>
+        <v>0.002522075926011473</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1287648887065416</v>
+        <v>0.1377689756088287</v>
       </c>
       <c r="K3">
-        <v>0.9150334087261172</v>
+        <v>0.465401726843794</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.394238286137607</v>
+        <v>5.899319320728324</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7982132228417527</v>
+        <v>0.4812742419334768</v>
       </c>
       <c r="C4">
-        <v>0.1081505784232917</v>
+        <v>0.0345163390492047</v>
       </c>
       <c r="D4">
-        <v>0.4629591636279144</v>
+        <v>0.6495256094539172</v>
       </c>
       <c r="E4">
-        <v>0.2043367198752009</v>
+        <v>0.2634298749776178</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000836295431153147</v>
+        <v>0.002524199042694553</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1192753677211442</v>
+        <v>0.1358465485516831</v>
       </c>
       <c r="K4">
-        <v>0.8292285358245124</v>
+        <v>0.4423871120722822</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.336904905952935</v>
+        <v>5.906085425792554</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7649456412129325</v>
+        <v>0.4725403297707089</v>
       </c>
       <c r="C5">
-        <v>0.1039223666790292</v>
+        <v>0.03330649273696906</v>
       </c>
       <c r="D5">
-        <v>0.4501072281492213</v>
+        <v>0.6472635146630807</v>
       </c>
       <c r="E5">
-        <v>0.1982856736794076</v>
+        <v>0.2623002565817103</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008376558098360988</v>
+        <v>0.002525091255716247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1154539352827513</v>
+        <v>0.135083291272224</v>
       </c>
       <c r="K5">
-        <v>0.7943670947369696</v>
+        <v>0.4330582644384435</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.315012570585139</v>
+        <v>5.90954040744603</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7594283468004051</v>
+        <v>0.4710936774963557</v>
       </c>
       <c r="C6">
-        <v>0.1032204576192441</v>
+        <v>0.03310565498350115</v>
       </c>
       <c r="D6">
-        <v>0.4479827833291949</v>
+        <v>0.646893077053079</v>
       </c>
       <c r="E6">
-        <v>0.1972852613813103</v>
+        <v>0.2621148932554647</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008378832498584795</v>
+        <v>0.002525241041770289</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1148220180930153</v>
+        <v>0.1349577692757151</v>
       </c>
       <c r="K6">
-        <v>0.7885840980382284</v>
+        <v>0.4315122346056626</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.311463868934311</v>
+        <v>5.910156232638059</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7977640984606467</v>
+        <v>0.481156211748754</v>
       </c>
       <c r="C7">
-        <v>0.1080935416090227</v>
+        <v>0.03450001889298449</v>
       </c>
       <c r="D7">
-        <v>0.4627851851276148</v>
+        <v>0.649494754722042</v>
       </c>
       <c r="E7">
-        <v>0.2042548169360003</v>
+        <v>0.2634144924633119</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008363136740896504</v>
+        <v>0.002524210965790865</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119223651586033</v>
+        <v>0.1358361734462008</v>
       </c>
       <c r="K7">
-        <v>0.8287579857811238</v>
+        <v>0.4422610978720911</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.336603808045368</v>
+        <v>5.906129196408557</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9680574630916965</v>
+        <v>0.5260818640995524</v>
       </c>
       <c r="C8">
-        <v>0.1296401717117703</v>
+        <v>0.04066091763100133</v>
       </c>
       <c r="D8">
-        <v>0.5295977381002785</v>
+        <v>0.6617282365491519</v>
       </c>
       <c r="E8">
-        <v>0.2356901224080872</v>
+        <v>0.2694704347873582</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008296086358522992</v>
+        <v>0.002519902504900995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1390596902568078</v>
+        <v>0.1398893078218393</v>
       </c>
       <c r="K8">
-        <v>1.007013870194442</v>
+        <v>0.4901296638275312</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.460684109174167</v>
+        <v>5.894485596734796</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.307561101715294</v>
+        <v>0.616039014601597</v>
       </c>
       <c r="C9">
-        <v>0.1722204197943853</v>
+        <v>0.05276849066387967</v>
       </c>
       <c r="D9">
-        <v>0.6669890965063132</v>
+        <v>0.6884231641164433</v>
       </c>
       <c r="E9">
-        <v>0.3002673618843374</v>
+        <v>0.2825013471280755</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008172117770569487</v>
+        <v>0.002512299914125139</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1797609722560125</v>
+        <v>0.1484753268403054</v>
       </c>
       <c r="K9">
-        <v>1.36163039392008</v>
+        <v>0.5855491617182338</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.757185407687558</v>
+        <v>5.893710926350366</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.561974291125239</v>
+        <v>0.6832572697290971</v>
       </c>
       <c r="C10">
-        <v>0.2038888569427399</v>
+        <v>0.06167904637788979</v>
       </c>
       <c r="D10">
-        <v>0.7728651853413169</v>
+        <v>0.7096884576464788</v>
       </c>
       <c r="E10">
-        <v>0.3500093554696662</v>
+        <v>0.292782377403249</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000808517647851787</v>
+        <v>0.002507224832058141</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2110974160571288</v>
+        <v>0.1551752504531549</v>
       </c>
       <c r="K10">
-        <v>1.626880263511651</v>
+        <v>0.6565922492789582</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.013598610859077</v>
+        <v>5.906635107262616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.679184147850691</v>
+        <v>0.7140805198862097</v>
       </c>
       <c r="C11">
-        <v>0.2184250544066941</v>
+        <v>0.06573588057106861</v>
       </c>
       <c r="D11">
-        <v>0.8223590601462547</v>
+        <v>0.7197223785069014</v>
       </c>
       <c r="E11">
-        <v>0.3732616619252553</v>
+        <v>0.2976137859902295</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008046416368738226</v>
+        <v>0.002505025759848191</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2257462709860789</v>
+        <v>0.1583089795384609</v>
       </c>
       <c r="K11">
-        <v>1.748972561492906</v>
+        <v>0.6891146103224628</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.140127441524839</v>
+        <v>5.91545514288606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.72381596685338</v>
+        <v>0.7257875376953962</v>
       </c>
       <c r="C12">
-        <v>0.2239524278418088</v>
+        <v>0.06727255640403484</v>
       </c>
       <c r="D12">
-        <v>0.8413157720432309</v>
+        <v>0.7235737793768067</v>
       </c>
       <c r="E12">
-        <v>0.3821678646665632</v>
+        <v>0.2994655646333015</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008031842929347392</v>
+        <v>0.002504208703032723</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.231357519326167</v>
+        <v>0.1595080315109669</v>
       </c>
       <c r="K12">
-        <v>1.795447454364364</v>
+        <v>0.7014591600774054</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.189600074403131</v>
+        <v>5.919218655401664</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.714192134084129</v>
+        <v>0.7232646744080284</v>
       </c>
       <c r="C13">
-        <v>0.2227609235611681</v>
+        <v>0.06694158687226093</v>
       </c>
       <c r="D13">
-        <v>0.8372231756266046</v>
+        <v>0.7227420091149384</v>
       </c>
       <c r="E13">
-        <v>0.3802450694005231</v>
+        <v>0.2990657621645596</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000803497710565227</v>
+        <v>0.002504383974490869</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2301460625376848</v>
+        <v>0.1592492433620407</v>
       </c>
       <c r="K13">
-        <v>1.785426923337923</v>
+        <v>0.6987992548065449</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.178873601366604</v>
+        <v>5.918389266999327</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.682850874181781</v>
+        <v>0.7150429654240043</v>
       </c>
       <c r="C14">
-        <v>0.2188793120839989</v>
+        <v>0.06586229523720988</v>
       </c>
       <c r="D14">
-        <v>0.8239142020783845</v>
+        <v>0.7200381981268436</v>
       </c>
       <c r="E14">
-        <v>0.3739922869838068</v>
+        <v>0.2977656873720065</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008045215372357419</v>
+        <v>0.002504958226257599</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2262065832173477</v>
+        <v>0.1584073780755517</v>
       </c>
       <c r="K14">
-        <v>1.752791028691661</v>
+        <v>0.6901296240085344</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.144165509877098</v>
+        <v>5.915756276723016</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.663686697593761</v>
+        <v>0.7100114686431027</v>
       </c>
       <c r="C15">
-        <v>0.2165048156662834</v>
+        <v>0.06520125402850852</v>
       </c>
       <c r="D15">
-        <v>0.8157907230470016</v>
+        <v>0.718388777360019</v>
       </c>
       <c r="E15">
-        <v>0.3701757900651188</v>
+        <v>0.2969722492038187</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008051499879944582</v>
+        <v>0.002505312012301777</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2238021110188839</v>
+        <v>0.1578933238322833</v>
       </c>
       <c r="K15">
-        <v>1.732833127340825</v>
+        <v>0.6848229954484282</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.123113110611314</v>
+        <v>5.914198673913347</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.554346951865739</v>
+        <v>0.681247803954335</v>
       </c>
       <c r="C16">
-        <v>0.2029418432541377</v>
+        <v>0.06141398683080013</v>
       </c>
       <c r="D16">
-        <v>0.7696593461634222</v>
+        <v>0.7090399636777818</v>
       </c>
       <c r="E16">
-        <v>0.348503267644972</v>
+        <v>0.2924697435792538</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008087724651031358</v>
+        <v>0.0025073707457065</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2101486213909283</v>
+        <v>0.1549721845012044</v>
       </c>
       <c r="K16">
-        <v>1.618932976419927</v>
+        <v>0.6544709199085617</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.005540037034223</v>
+        <v>5.906117930731654</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.487672357448361</v>
+        <v>0.6636648072723972</v>
       </c>
       <c r="C17">
-        <v>0.194657524442917</v>
+        <v>0.0590914539441485</v>
       </c>
       <c r="D17">
-        <v>0.7417158002689632</v>
+        <v>0.7033970129693046</v>
       </c>
       <c r="E17">
-        <v>0.3353755081632386</v>
+        <v>0.2897471843608415</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008110143230949385</v>
+        <v>0.002508661729984732</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2018785678183264</v>
+        <v>0.1532021785279909</v>
       </c>
       <c r="K17">
-        <v>1.549449287193852</v>
+        <v>0.6359030183190839</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.936038547059269</v>
+        <v>5.90191433750266</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.449459567419552</v>
+        <v>0.6535746451653495</v>
       </c>
       <c r="C18">
-        <v>0.1899045759225544</v>
+        <v>0.05775591501864596</v>
       </c>
       <c r="D18">
-        <v>0.7257671228205425</v>
+        <v>0.700185245338389</v>
       </c>
       <c r="E18">
-        <v>0.327882809505823</v>
+        <v>0.2881957835010382</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008123112763904333</v>
+        <v>0.002509414591506202</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.197158430239142</v>
+        <v>0.1521922017664821</v>
       </c>
       <c r="K18">
-        <v>1.509616268398389</v>
+        <v>0.6252425231463121</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.896984639236024</v>
+        <v>5.899773299286807</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.436543838560283</v>
+        <v>0.6501622701637473</v>
       </c>
       <c r="C19">
-        <v>0.1882972462121302</v>
+        <v>0.05730378092434307</v>
       </c>
       <c r="D19">
-        <v>0.7203877498703264</v>
+        <v>0.699103620675686</v>
       </c>
       <c r="E19">
-        <v>0.3253555522191789</v>
+        <v>0.2876730033436132</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008127517173978457</v>
+        <v>0.002509671272649006</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1955663398868808</v>
+        <v>0.1518516286594007</v>
       </c>
       <c r="K19">
-        <v>1.496151155161783</v>
+        <v>0.6216363837699816</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.883915938922541</v>
+        <v>5.899095893311937</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.494755594893462</v>
+        <v>0.665534157818513</v>
       </c>
       <c r="C20">
-        <v>0.1955381365833659</v>
+        <v>0.05933865868652788</v>
       </c>
       <c r="D20">
-        <v>0.7446774736233692</v>
+        <v>0.7039942055261577</v>
       </c>
       <c r="E20">
-        <v>0.3367668951209879</v>
+        <v>0.2900355002031674</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008107749042771584</v>
+        <v>0.002508523234892038</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2027550917833025</v>
+        <v>0.1533897618613906</v>
       </c>
       <c r="K20">
-        <v>1.556832017807494</v>
+        <v>0.6378776113904223</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.943340770138974</v>
+        <v>5.902333168896519</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.692049566157522</v>
+        <v>0.7174569356965037</v>
       </c>
       <c r="C21">
-        <v>0.2200187809198013</v>
+        <v>0.06617929774431275</v>
       </c>
       <c r="D21">
-        <v>0.8278173549322787</v>
+        <v>0.7208309680748926</v>
       </c>
       <c r="E21">
-        <v>0.3758260430959481</v>
+        <v>0.2981469474815768</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008042205396583323</v>
+        <v>0.00250478912960558</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2273619030213325</v>
+        <v>0.1586543182188791</v>
       </c>
       <c r="K21">
-        <v>1.762370135098422</v>
+        <v>0.6926753195857032</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.154316651499187</v>
+        <v>5.916518149160936</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.822450680038997</v>
+        <v>0.7515948619698065</v>
       </c>
       <c r="C22">
-        <v>0.2361535904886694</v>
+        <v>0.07065259969098747</v>
       </c>
       <c r="D22">
-        <v>0.8834163894914013</v>
+        <v>0.7321365250778058</v>
       </c>
       <c r="E22">
-        <v>0.4019484980330716</v>
+        <v>0.3035778201402195</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007999971082721154</v>
+        <v>0.002502440060161172</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2438211369339456</v>
+        <v>0.1621671630391717</v>
       </c>
       <c r="K22">
-        <v>1.89812603102277</v>
+        <v>0.7286578738384435</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.301361200550502</v>
+        <v>5.928257982892944</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.752707417722689</v>
+        <v>0.7333563146842721</v>
       </c>
       <c r="C23">
-        <v>0.2275282872346054</v>
+        <v>0.06826489566397242</v>
       </c>
       <c r="D23">
-        <v>0.8536184240386433</v>
+        <v>0.7260749344955286</v>
       </c>
       <c r="E23">
-        <v>0.3879480070087524</v>
+        <v>0.3006674018742714</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008022460545663503</v>
+        <v>0.002503685466650076</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2349993773123344</v>
+        <v>0.1602856814931783</v>
       </c>
       <c r="K23">
-        <v>1.82552749700622</v>
+        <v>0.7094379572360765</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.221993891814861</v>
+        <v>5.921766061905316</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.491552894169416</v>
+        <v>0.664688966670326</v>
       </c>
       <c r="C24">
-        <v>0.1951399815648642</v>
+        <v>0.05922689830377692</v>
       </c>
       <c r="D24">
-        <v>0.7433381401422707</v>
+        <v>0.7037241137248884</v>
       </c>
       <c r="E24">
-        <v>0.3361376797713902</v>
+        <v>0.2899051095196654</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008108831203090805</v>
+        <v>0.002508585815337151</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2023587086209346</v>
+        <v>0.1533049316939241</v>
       </c>
       <c r="K24">
-        <v>1.55349393262486</v>
+        <v>0.6369848528617297</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.940036631356492</v>
+        <v>5.902142956561278</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.214964736024967</v>
+        <v>0.5915049376159516</v>
       </c>
       <c r="C25">
-        <v>0.1606481591586686</v>
+        <v>0.04949036330576462</v>
       </c>
       <c r="D25">
-        <v>0.6290355772480893</v>
+        <v>0.6809115294444155</v>
       </c>
       <c r="E25">
-        <v>0.2824334516795801</v>
+        <v>0.2788521609619821</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008204893789703906</v>
+        <v>0.002514266573351096</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1685243435915211</v>
+        <v>0.146083994465684</v>
       </c>
       <c r="K25">
-        <v>1.264995597938253</v>
+        <v>0.5595704427652493</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.670675307713623</v>
+        <v>5.891554259591885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.538380445877948</v>
+        <v>1.014519984574662</v>
       </c>
       <c r="C2">
-        <v>0.04233200773009571</v>
+        <v>0.1354940740720991</v>
       </c>
       <c r="D2">
-        <v>0.6652258404945997</v>
+        <v>0.5480957328858267</v>
       </c>
       <c r="E2">
-        <v>0.2711893627522741</v>
+        <v>0.244388494406067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002518792601187466</v>
+        <v>0.0008278443194405169</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1410305611426637</v>
+        <v>0.144544807658022</v>
       </c>
       <c r="K2">
-        <v>0.5032047446278796</v>
+        <v>1.05559863320417</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.892821856924797</v>
+        <v>3.497691192539548</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5028528678126349</v>
+        <v>0.8801487698621031</v>
       </c>
       <c r="C3">
-        <v>0.03748746243596202</v>
+        <v>0.1185365042219928</v>
       </c>
       <c r="D3">
-        <v>0.6552871200087793</v>
+        <v>0.4949036864751974</v>
       </c>
       <c r="E3">
-        <v>0.2662916400292659</v>
+        <v>0.2193706016527699</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002522075926011473</v>
+        <v>0.0008330194202769114</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1377689756088287</v>
+        <v>0.1287648887065913</v>
       </c>
       <c r="K3">
-        <v>0.465401726843794</v>
+        <v>0.9150334087261456</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.899319320728324</v>
+        <v>3.394238286137551</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4812742419334768</v>
+        <v>0.7982132228415253</v>
       </c>
       <c r="C4">
-        <v>0.0345163390492047</v>
+        <v>0.1081505784233059</v>
       </c>
       <c r="D4">
-        <v>0.6495256094539172</v>
+        <v>0.4629591636278008</v>
       </c>
       <c r="E4">
-        <v>0.2634298749776178</v>
+        <v>0.2043367198752222</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002524199042694553</v>
+        <v>0.000836295431126922</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1358465485516831</v>
+        <v>0.1192753677211726</v>
       </c>
       <c r="K4">
-        <v>0.4423871120722822</v>
+        <v>0.8292285358244271</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.906085425792554</v>
+        <v>3.336904905952821</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4725403297707089</v>
+        <v>0.7649456412130746</v>
       </c>
       <c r="C5">
-        <v>0.03330649273696906</v>
+        <v>0.1039223666787876</v>
       </c>
       <c r="D5">
-        <v>0.6472635146630807</v>
+        <v>0.4501072281491929</v>
       </c>
       <c r="E5">
-        <v>0.2623002565817103</v>
+        <v>0.1982856736794005</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002525091255716247</v>
+        <v>0.000837655809867782</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.135083291272224</v>
+        <v>0.115453935282666</v>
       </c>
       <c r="K5">
-        <v>0.4330582644384435</v>
+        <v>0.7943670947370549</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.90954040744603</v>
+        <v>3.315012570585026</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4710936774963557</v>
+        <v>0.7594283468005756</v>
       </c>
       <c r="C6">
-        <v>0.03310565498350115</v>
+        <v>0.103220457619372</v>
       </c>
       <c r="D6">
-        <v>0.646893077053079</v>
+        <v>0.4479827833291097</v>
       </c>
       <c r="E6">
-        <v>0.2621148932554647</v>
+        <v>0.1972852613813245</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002525241041770289</v>
+        <v>0.0008378832498555013</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1349577692757151</v>
+        <v>0.1148220180930579</v>
       </c>
       <c r="K6">
-        <v>0.4315122346056626</v>
+        <v>0.7885840980381715</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.910156232638059</v>
+        <v>3.311463868934311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.481156211748754</v>
+        <v>0.7977640984606182</v>
       </c>
       <c r="C7">
-        <v>0.03450001889298449</v>
+        <v>0.1080935416090227</v>
       </c>
       <c r="D7">
-        <v>0.649494754722042</v>
+        <v>0.4627851851273022</v>
       </c>
       <c r="E7">
-        <v>0.2634144924633119</v>
+        <v>0.2042548169360074</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002524210965790865</v>
+        <v>0.0008363136742092445</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1358361734462008</v>
+        <v>0.1192236515860472</v>
       </c>
       <c r="K7">
-        <v>0.4422610978720911</v>
+        <v>0.8287579857811238</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.906129196408557</v>
+        <v>3.336603808045339</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5260818640995524</v>
+        <v>0.9680574630918102</v>
       </c>
       <c r="C8">
-        <v>0.04066091763100133</v>
+        <v>0.1296401717120403</v>
       </c>
       <c r="D8">
-        <v>0.6617282365491519</v>
+        <v>0.529597738100307</v>
       </c>
       <c r="E8">
-        <v>0.2694704347873582</v>
+        <v>0.235690122408073</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002519902504900995</v>
+        <v>0.0008296086357918487</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1398893078218393</v>
+        <v>0.1390596902568433</v>
       </c>
       <c r="K8">
-        <v>0.4901296638275312</v>
+        <v>1.007013870194498</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.894485596734796</v>
+        <v>3.460684109174196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.616039014601597</v>
+        <v>1.307561101715379</v>
       </c>
       <c r="C9">
-        <v>0.05276849066387967</v>
+        <v>0.1722204197946411</v>
       </c>
       <c r="D9">
-        <v>0.6884231641164433</v>
+        <v>0.6669890965063416</v>
       </c>
       <c r="E9">
-        <v>0.2825013471280755</v>
+        <v>0.3002673618843232</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002512299914125139</v>
+        <v>0.0008172117770552965</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1484753268403054</v>
+        <v>0.179760972256048</v>
       </c>
       <c r="K9">
-        <v>0.5855491617182338</v>
+        <v>1.361630393920024</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.893710926350366</v>
+        <v>3.757185407687416</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6832572697290971</v>
+        <v>1.561974291125296</v>
       </c>
       <c r="C10">
-        <v>0.06167904637788979</v>
+        <v>0.2038888569427399</v>
       </c>
       <c r="D10">
-        <v>0.7096884576464788</v>
+        <v>0.7728651853412316</v>
       </c>
       <c r="E10">
-        <v>0.292782377403249</v>
+        <v>0.350009355469652</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002507224832058141</v>
+        <v>0.0008085176478526509</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1551752504531549</v>
+        <v>0.2110974160571288</v>
       </c>
       <c r="K10">
-        <v>0.6565922492789582</v>
+        <v>1.626880263511651</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.906635107262616</v>
+        <v>4.013598610859049</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7140805198862097</v>
+        <v>1.679184147850805</v>
       </c>
       <c r="C11">
-        <v>0.06573588057106861</v>
+        <v>0.2184250544064099</v>
       </c>
       <c r="D11">
-        <v>0.7197223785069014</v>
+        <v>0.8223590601462547</v>
       </c>
       <c r="E11">
-        <v>0.2976137859902295</v>
+        <v>0.3732616619252553</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002505025759848191</v>
+        <v>0.0008046416369100159</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1583089795384609</v>
+        <v>0.2257462709859226</v>
       </c>
       <c r="K11">
-        <v>0.6891146103224628</v>
+        <v>1.74897256149282</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.91545514288606</v>
+        <v>4.140127441524783</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7257875376953962</v>
+        <v>1.723815966853522</v>
       </c>
       <c r="C12">
-        <v>0.06727255640403484</v>
+        <v>0.2239524278419793</v>
       </c>
       <c r="D12">
-        <v>0.7235737793768067</v>
+        <v>0.8413157720431457</v>
       </c>
       <c r="E12">
-        <v>0.2994655646333015</v>
+        <v>0.3821678646666129</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002504208703032723</v>
+        <v>0.0008031842928590889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1595080315109669</v>
+        <v>0.2313575193261812</v>
       </c>
       <c r="K12">
-        <v>0.7014591600774054</v>
+        <v>1.795447454364364</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.919218655401664</v>
+        <v>4.189600074403018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7232646744080284</v>
+        <v>1.714192134084044</v>
       </c>
       <c r="C13">
-        <v>0.06694158687226093</v>
+        <v>0.2227609235610259</v>
       </c>
       <c r="D13">
-        <v>0.7227420091149384</v>
+        <v>0.837223175626491</v>
       </c>
       <c r="E13">
-        <v>0.2990657621645596</v>
+        <v>0.3802450694004875</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002504383974490869</v>
+        <v>0.000803497710486842</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1592492433620407</v>
+        <v>0.2301460625376848</v>
       </c>
       <c r="K13">
-        <v>0.6987992548065449</v>
+        <v>1.785426923337809</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.918389266999327</v>
+        <v>4.178873601366547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7150429654240043</v>
+        <v>1.682850874181781</v>
       </c>
       <c r="C14">
-        <v>0.06586229523720988</v>
+        <v>0.2188793120841694</v>
       </c>
       <c r="D14">
-        <v>0.7200381981268436</v>
+        <v>0.8239142020786687</v>
       </c>
       <c r="E14">
-        <v>0.2977656873720065</v>
+        <v>0.3739922869838139</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002504958226257599</v>
+        <v>0.0008045215371985369</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1584073780755517</v>
+        <v>0.2262065832174187</v>
       </c>
       <c r="K14">
-        <v>0.6901296240085344</v>
+        <v>1.752791028691604</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.915756276723016</v>
+        <v>4.144165509877098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7100114686431027</v>
+        <v>1.663686697593761</v>
       </c>
       <c r="C15">
-        <v>0.06520125402850852</v>
+        <v>0.2165048156664966</v>
       </c>
       <c r="D15">
-        <v>0.718388777360019</v>
+        <v>0.8157907230469164</v>
       </c>
       <c r="E15">
-        <v>0.2969722492038187</v>
+        <v>0.3701757900651046</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002505312012301777</v>
+        <v>0.0008051499879958023</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1578933238322833</v>
+        <v>0.2238021110187844</v>
       </c>
       <c r="K15">
-        <v>0.6848229954484282</v>
+        <v>1.732833127340797</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.914198673913347</v>
+        <v>4.123113110611257</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.681247803954335</v>
+        <v>1.554346951865909</v>
       </c>
       <c r="C16">
-        <v>0.06141398683080013</v>
+        <v>0.2029418432541235</v>
       </c>
       <c r="D16">
-        <v>0.7090399636777818</v>
+        <v>0.7696593461634222</v>
       </c>
       <c r="E16">
-        <v>0.2924697435792538</v>
+        <v>0.3485032676449862</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0025073707457065</v>
+        <v>0.000808772465140482</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1549721845012044</v>
+        <v>0.2101486213909851</v>
       </c>
       <c r="K16">
-        <v>0.6544709199085617</v>
+        <v>1.618932976420012</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.906117930731654</v>
+        <v>4.005540037034365</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6636648072723972</v>
+        <v>1.487672357448247</v>
       </c>
       <c r="C17">
-        <v>0.0590914539441485</v>
+        <v>0.194657524442917</v>
       </c>
       <c r="D17">
-        <v>0.7033970129693046</v>
+        <v>0.7417158002690201</v>
       </c>
       <c r="E17">
-        <v>0.2897471843608415</v>
+        <v>0.3353755081632386</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002508661729984732</v>
+        <v>0.0008110143231236547</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1532021785279909</v>
+        <v>0.2018785678183832</v>
       </c>
       <c r="K17">
-        <v>0.6359030183190839</v>
+        <v>1.549449287193767</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.90191433750266</v>
+        <v>3.936038547059184</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6535746451653495</v>
+        <v>1.449459567419524</v>
       </c>
       <c r="C18">
-        <v>0.05775591501864596</v>
+        <v>0.1899045759225402</v>
       </c>
       <c r="D18">
-        <v>0.700185245338389</v>
+        <v>0.7257671228204572</v>
       </c>
       <c r="E18">
-        <v>0.2881957835010382</v>
+        <v>0.3278828095057875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002509414591506202</v>
+        <v>0.0008123112764197557</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1521922017664821</v>
+        <v>0.1971584302391278</v>
       </c>
       <c r="K18">
-        <v>0.6252425231463121</v>
+        <v>1.509616268398418</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.899773299286807</v>
+        <v>3.896984639236052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6501622701637473</v>
+        <v>1.436543838560254</v>
       </c>
       <c r="C19">
-        <v>0.05730378092434307</v>
+        <v>0.1882972462120449</v>
       </c>
       <c r="D19">
-        <v>0.699103620675686</v>
+        <v>0.7203877498705538</v>
       </c>
       <c r="E19">
-        <v>0.2876730033436132</v>
+        <v>0.3253555522191931</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002509671272649006</v>
+        <v>0.0008127517173598118</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1518516286594007</v>
+        <v>0.1955663398869234</v>
       </c>
       <c r="K19">
-        <v>0.6216363837699816</v>
+        <v>1.496151155161698</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.899095893311937</v>
+        <v>3.883915938922513</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.665534157818513</v>
+        <v>1.494755594893462</v>
       </c>
       <c r="C20">
-        <v>0.05933865868652788</v>
+        <v>0.1955381365836217</v>
       </c>
       <c r="D20">
-        <v>0.7039942055261577</v>
+        <v>0.7446774736233692</v>
       </c>
       <c r="E20">
-        <v>0.2900355002031674</v>
+        <v>0.3367668951209666</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002508523234892038</v>
+        <v>0.0008107749042829447</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1533897618613906</v>
+        <v>0.2027550917831746</v>
       </c>
       <c r="K20">
-        <v>0.6378776113904223</v>
+        <v>1.556832017807608</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.902333168896519</v>
+        <v>3.943340770139002</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7174569356965037</v>
+        <v>1.692049566157465</v>
       </c>
       <c r="C21">
-        <v>0.06617929774431275</v>
+        <v>0.2200187809199434</v>
       </c>
       <c r="D21">
-        <v>0.7208309680748926</v>
+        <v>0.827817354932165</v>
       </c>
       <c r="E21">
-        <v>0.2981469474815768</v>
+        <v>0.3758260430959552</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00250478912960558</v>
+        <v>0.0008042205396957133</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1586543182188791</v>
+        <v>0.2273619030212615</v>
       </c>
       <c r="K21">
-        <v>0.6926753195857032</v>
+        <v>1.76237013509845</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.916518149160936</v>
+        <v>4.154316651499187</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7515948619698065</v>
+        <v>1.822450680038855</v>
       </c>
       <c r="C22">
-        <v>0.07065259969098747</v>
+        <v>0.2361535904885557</v>
       </c>
       <c r="D22">
-        <v>0.7321365250778058</v>
+        <v>0.8834163894913729</v>
       </c>
       <c r="E22">
-        <v>0.3035778201402195</v>
+        <v>0.4019484980331072</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002502440060161172</v>
+        <v>0.0007999971083097821</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1621671630391717</v>
+        <v>0.2438211369340166</v>
       </c>
       <c r="K22">
-        <v>0.7286578738384435</v>
+        <v>1.898126031022684</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.928257982892944</v>
+        <v>4.301361200550502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7333563146842721</v>
+        <v>1.752707417722718</v>
       </c>
       <c r="C23">
-        <v>0.06826489566397242</v>
+        <v>0.2275282872347759</v>
       </c>
       <c r="D23">
-        <v>0.7260749344955286</v>
+        <v>0.853618424038558</v>
       </c>
       <c r="E23">
-        <v>0.3006674018742714</v>
+        <v>0.3879480070087595</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002503685466650076</v>
+        <v>0.0008022460545677988</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1602856814931783</v>
+        <v>0.234999377312306</v>
       </c>
       <c r="K23">
-        <v>0.7094379572360765</v>
+        <v>1.825527497006249</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.921766061905316</v>
+        <v>4.221993891814918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.664688966670326</v>
+        <v>1.491552894169359</v>
       </c>
       <c r="C24">
-        <v>0.05922689830377692</v>
+        <v>0.1951399815650063</v>
       </c>
       <c r="D24">
-        <v>0.7037241137248884</v>
+        <v>0.7433381401423844</v>
       </c>
       <c r="E24">
-        <v>0.2899051095196654</v>
+        <v>0.3361376797714115</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002508585815337151</v>
+        <v>0.0008108831203381269</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1533049316939241</v>
+        <v>0.2023587086209488</v>
       </c>
       <c r="K24">
-        <v>0.6369848528617297</v>
+        <v>1.553493932624804</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.902142956561278</v>
+        <v>3.940036631356463</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5915049376159516</v>
+        <v>1.214964736025024</v>
       </c>
       <c r="C25">
-        <v>0.04949036330576462</v>
+        <v>0.1606481591585265</v>
       </c>
       <c r="D25">
-        <v>0.6809115294444155</v>
+        <v>0.6290355772481462</v>
       </c>
       <c r="E25">
-        <v>0.2788521609619821</v>
+        <v>0.2824334516795801</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002514266573351096</v>
+        <v>0.0008204893789751142</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.146083994465684</v>
+        <v>0.1685243435915709</v>
       </c>
       <c r="K25">
-        <v>0.5595704427652493</v>
+        <v>1.264995597938224</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.891554259591885</v>
+        <v>3.670675307713594</v>
       </c>
     </row>
   </sheetData>
